--- a/Excel-XLSX/UN-LAO.xlsx
+++ b/Excel-XLSX/UN-LAO.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,127 @@
     <t>1</t>
   </si>
   <si>
-    <t>7r1Nwe</t>
+    <t>tgs2HN</t>
+  </si>
+  <si>
+    <t>1976</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>CAM</t>
+  </si>
+  <si>
+    <t>KHM</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>Lao People's Dem. Rep.</t>
+  </si>
+  <si>
+    <t>LAO</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1977</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1978</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1979</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>1980</t>
+  </si>
+  <si>
+    <t>10370</t>
+  </si>
+  <si>
+    <t>19940</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>1981</t>
+  </si>
+  <si>
+    <t>3500</t>
+  </si>
+  <si>
+    <t>6900</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>1982</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>1983</t>
+  </si>
+  <si>
+    <t>1260</t>
+  </si>
+  <si>
+    <t>2240</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>1984</t>
+  </si>
+  <si>
+    <t>1200</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>1987</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>11</t>
   </si>
   <si>
     <t>1972</t>
@@ -105,25 +225,10 @@
     <t>MMR</t>
   </si>
   <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>Lao People's Dem. Rep.</t>
-  </si>
-  <si>
-    <t>LAO</t>
-  </si>
-  <si>
     <t>700</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>12</t>
   </si>
   <si>
     <t>1975</t>
@@ -138,112 +243,10 @@
     <t>UKN</t>
   </si>
   <si>
+    <t>UNK</t>
+  </si>
+  <si>
     <t>70</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>1976</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>Cambodia</t>
-  </si>
-  <si>
-    <t>CAM</t>
-  </si>
-  <si>
-    <t>KHM</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>1977</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>1978</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>1979</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>1980</t>
-  </si>
-  <si>
-    <t>10370</t>
-  </si>
-  <si>
-    <t>19940</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>1981</t>
-  </si>
-  <si>
-    <t>3500</t>
-  </si>
-  <si>
-    <t>6900</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>1982</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>1983</t>
-  </si>
-  <si>
-    <t>1260</t>
-  </si>
-  <si>
-    <t>2240</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>1984</t>
-  </si>
-  <si>
-    <t>1200</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>1987</t>
-  </si>
-  <si>
-    <t>80</t>
   </si>
 </sst>
 </file>
@@ -768,8 +771,8 @@
       <c r="U2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V2" s="2" t="s">
-        <v>33</v>
+      <c r="V2" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3">
@@ -789,16 +792,16 @@
         <v>36</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>29</v>
@@ -813,7 +816,7 @@
         <v>31</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>33</v>
@@ -836,8 +839,8 @@
       <c r="U3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V3" s="2" t="s">
-        <v>33</v>
+      <c r="V3" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4">
@@ -851,22 +854,22 @@
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>29</v>
@@ -881,7 +884,7 @@
         <v>31</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>33</v>
@@ -904,8 +907,8 @@
       <c r="U4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V4" s="2" t="s">
-        <v>33</v>
+      <c r="V4" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5">
@@ -919,22 +922,22 @@
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>29</v>
@@ -949,7 +952,7 @@
         <v>31</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>33</v>
@@ -972,8 +975,8 @@
       <c r="U5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V5" s="2" t="s">
-        <v>33</v>
+      <c r="V5" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6">
@@ -987,22 +990,22 @@
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>29</v>
@@ -1017,13 +1020,13 @@
         <v>31</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>33</v>
@@ -1040,8 +1043,8 @@
       <c r="U6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V6" s="2" t="s">
-        <v>33</v>
+      <c r="V6" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7">
@@ -1055,22 +1058,22 @@
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>29</v>
@@ -1085,13 +1088,13 @@
         <v>31</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>33</v>
@@ -1108,8 +1111,8 @@
       <c r="U7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>33</v>
+      <c r="V7" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="8">
@@ -1123,22 +1126,22 @@
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>29</v>
@@ -1153,13 +1156,13 @@
         <v>31</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="Q8" s="2" t="s">
         <v>33</v>
@@ -1176,8 +1179,8 @@
       <c r="U8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V8" s="2" t="s">
-        <v>33</v>
+      <c r="V8" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9">
@@ -1191,22 +1194,22 @@
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>29</v>
@@ -1221,13 +1224,13 @@
         <v>31</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="O9" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="Q9" s="2" t="s">
         <v>33</v>
@@ -1244,8 +1247,8 @@
       <c r="U9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V9" s="2" t="s">
-        <v>33</v>
+      <c r="V9" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="10">
@@ -1259,22 +1262,22 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>29</v>
@@ -1289,7 +1292,7 @@
         <v>31</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>33</v>
@@ -1312,8 +1315,8 @@
       <c r="U10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V10" s="2" t="s">
-        <v>33</v>
+      <c r="V10" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11">
@@ -1327,22 +1330,22 @@
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>29</v>
@@ -1357,13 +1360,13 @@
         <v>31</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="Q11" s="2" t="s">
         <v>33</v>
@@ -1380,8 +1383,8 @@
       <c r="U11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V11" s="2" t="s">
-        <v>33</v>
+      <c r="V11" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="12">
@@ -1395,22 +1398,22 @@
         <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>29</v>
@@ -1425,7 +1428,7 @@
         <v>31</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>33</v>
@@ -1448,8 +1451,8 @@
       <c r="U12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V12" s="2" t="s">
-        <v>33</v>
+      <c r="V12" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13">
@@ -1463,22 +1466,22 @@
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="H13" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="I13" s="1" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>29</v>
@@ -1493,7 +1496,7 @@
         <v>31</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>33</v>
@@ -1516,8 +1519,8 @@
       <c r="U13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V13" s="2" t="s">
-        <v>33</v>
+      <c r="V13" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-LAO.xlsx
+++ b/Excel-XLSX/UN-LAO.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>tgs2HN</t>
+    <t>7eId9P</t>
   </si>
   <si>
     <t>1976</t>
@@ -771,8 +771,8 @@
       <c r="U2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>34</v>
+      <c r="V2" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -839,8 +839,8 @@
       <c r="U3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>34</v>
+      <c r="V3" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -907,8 +907,8 @@
       <c r="U4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>34</v>
+      <c r="V4" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5">
@@ -975,8 +975,8 @@
       <c r="U5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>34</v>
+      <c r="V5" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6">
@@ -1043,8 +1043,8 @@
       <c r="U6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>34</v>
+      <c r="V6" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7">
@@ -1111,8 +1111,8 @@
       <c r="U7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>34</v>
+      <c r="V7" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8">
@@ -1179,8 +1179,8 @@
       <c r="U8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>34</v>
+      <c r="V8" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9">
@@ -1247,8 +1247,8 @@
       <c r="U9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V9" s="1" t="s">
-        <v>34</v>
+      <c r="V9" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10">
@@ -1315,8 +1315,8 @@
       <c r="U10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V10" s="1" t="s">
-        <v>34</v>
+      <c r="V10" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11">
@@ -1383,8 +1383,8 @@
       <c r="U11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V11" s="1" t="s">
-        <v>34</v>
+      <c r="V11" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12">
@@ -1451,8 +1451,8 @@
       <c r="U12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V12" s="1" t="s">
-        <v>34</v>
+      <c r="V12" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="13">
@@ -1519,8 +1519,8 @@
       <c r="U13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V13" s="1" t="s">
-        <v>34</v>
+      <c r="V13" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-LAO.xlsx
+++ b/Excel-XLSX/UN-LAO.xlsx
@@ -90,6 +90,63 @@
     <t>7eId9P</t>
   </si>
   <si>
+    <t>1972</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>MYA</t>
+  </si>
+  <si>
+    <t>MMR</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>Lao People's Dem. Rep.</t>
+  </si>
+  <si>
+    <t>LAO</t>
+  </si>
+  <si>
+    <t>700</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1975</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>Unknown </t>
+  </si>
+  <si>
+    <t>UKN</t>
+  </si>
+  <si>
+    <t>UNK</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>1976</t>
   </si>
   <si>
@@ -105,25 +162,10 @@
     <t>KHM</t>
   </si>
   <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>Lao People's Dem. Rep.</t>
-  </si>
-  <si>
-    <t>LAO</t>
-  </si>
-  <si>
     <t>110</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>4</t>
   </si>
   <si>
     <t>1977</t>
@@ -132,7 +174,7 @@
     <t>100</t>
   </si>
   <si>
-    <t>3</t>
+    <t>5</t>
   </si>
   <si>
     <t>1978</t>
@@ -141,13 +183,13 @@
     <t>120</t>
   </si>
   <si>
-    <t>4</t>
+    <t>6</t>
   </si>
   <si>
     <t>1979</t>
   </si>
   <si>
-    <t>5</t>
+    <t>7</t>
   </si>
   <si>
     <t>1980</t>
@@ -159,7 +201,7 @@
     <t>19940</t>
   </si>
   <si>
-    <t>6</t>
+    <t>8</t>
   </si>
   <si>
     <t>1981</t>
@@ -171,13 +213,13 @@
     <t>6900</t>
   </si>
   <si>
-    <t>7</t>
+    <t>9</t>
   </si>
   <si>
     <t>1982</t>
   </si>
   <si>
-    <t>8</t>
+    <t>10</t>
   </si>
   <si>
     <t>1983</t>
@@ -189,7 +231,7 @@
     <t>2240</t>
   </si>
   <si>
-    <t>9</t>
+    <t>11</t>
   </si>
   <si>
     <t>1984</t>
@@ -198,55 +240,13 @@
     <t>1200</t>
   </si>
   <si>
-    <t>10</t>
+    <t>12</t>
   </si>
   <si>
     <t>1987</t>
   </si>
   <si>
     <t>80</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>1972</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>Myanmar</t>
-  </si>
-  <si>
-    <t>MYA</t>
-  </si>
-  <si>
-    <t>MMR</t>
-  </si>
-  <si>
-    <t>700</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>1975</t>
-  </si>
-  <si>
-    <t>262</t>
-  </si>
-  <si>
-    <t>Unknown </t>
-  </si>
-  <si>
-    <t>UKN</t>
-  </si>
-  <si>
-    <t>UNK</t>
-  </si>
-  <si>
-    <t>70</t>
   </si>
 </sst>
 </file>
@@ -792,16 +792,16 @@
         <v>36</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>29</v>
@@ -816,7 +816,7 @@
         <v>31</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>33</v>
@@ -854,22 +854,22 @@
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>29</v>
@@ -884,7 +884,7 @@
         <v>31</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>33</v>
@@ -922,22 +922,22 @@
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>29</v>
@@ -952,7 +952,7 @@
         <v>31</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>33</v>
@@ -990,22 +990,22 @@
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>29</v>
@@ -1020,13 +1020,13 @@
         <v>31</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>33</v>
@@ -1058,22 +1058,22 @@
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>29</v>
@@ -1088,13 +1088,13 @@
         <v>31</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>33</v>
@@ -1126,22 +1126,22 @@
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>29</v>
@@ -1156,13 +1156,13 @@
         <v>31</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="Q8" s="2" t="s">
         <v>33</v>
@@ -1194,22 +1194,22 @@
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>29</v>
@@ -1224,13 +1224,13 @@
         <v>31</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="O9" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="Q9" s="2" t="s">
         <v>33</v>
@@ -1262,22 +1262,22 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>29</v>
@@ -1292,7 +1292,7 @@
         <v>31</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>33</v>
@@ -1330,22 +1330,22 @@
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>29</v>
@@ -1360,13 +1360,13 @@
         <v>31</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="Q11" s="2" t="s">
         <v>33</v>
@@ -1398,22 +1398,22 @@
         <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>29</v>
@@ -1428,7 +1428,7 @@
         <v>31</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>33</v>
@@ -1466,22 +1466,22 @@
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>29</v>

--- a/Excel-XLSX/UN-LAO.xlsx
+++ b/Excel-XLSX/UN-LAO.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>7eId9P</t>
+    <t>y6Y3Zr</t>
   </si>
   <si>
     <t>1972</t>
